--- a/www.eia.gov/electricity/monthly/xls/table_4_08_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_08_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
-    <t>Table 4.8.A. Receipts of Petroleum Coke Delivered for Electricity Generation by State, October 2016 and 2015</t>
+    <t>Table 4.8.A. Receipts of Petroleum Coke Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Thousand Tons)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1776,25 +1776,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
+        <v>73</v>
+      </c>
+      <c r="C17" s="13">
+        <v>143</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-0.49</v>
+      </c>
+      <c r="E17" s="13">
+        <v>27</v>
+      </c>
+      <c r="F17" s="13">
         <v>78</v>
       </c>
-      <c r="C17" s="13">
-        <v>61</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="E17" s="13">
-        <v>22</v>
-      </c>
-      <c r="F17" s="13">
-        <v>14</v>
-      </c>
       <c r="G17" s="13">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H17" s="13">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="16">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D19" s="17">
         <v>-1</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="16">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G19" s="16">
         <v>0</v>
@@ -1890,19 +1890,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="16">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17">
-        <v>0.7</v>
+        <v>-2E-3</v>
       </c>
       <c r="E20" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="16">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G20" s="16">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C21" s="16">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D21" s="17">
-        <v>0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="E21" s="16">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H21" s="16">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1966,37 +1966,37 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="E22" s="16">
+        <v>8</v>
+      </c>
+      <c r="F22" s="16">
+        <v>4</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
         <v>5</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="17">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="E22" s="16">
-        <v>5</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,19 +2308,19 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C31" s="13">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.59</v>
+        <v>-0.12</v>
       </c>
       <c r="E31" s="13">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F31" s="13">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C34" s="16">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D34" s="17">
-        <v>-0.65</v>
+        <v>-0.21</v>
       </c>
       <c r="E34" s="16">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F34" s="16">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G34" s="16">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41" s="13">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.7</v>
+        <v>-0.73</v>
       </c>
       <c r="E41" s="13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F41" s="13">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G41" s="13">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C43" s="16">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D43" s="17">
-        <v>-0.7</v>
+        <v>-0.73</v>
       </c>
       <c r="E43" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F43" s="16">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2878,19 +2878,19 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C46" s="13">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D46" s="14">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E46" s="13">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F46" s="13">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2954,19 +2954,19 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C48" s="16">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D48" s="17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E48" s="16">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F48" s="16">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G48" s="16">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C67" s="13">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.19</v>
+        <v>-0.22</v>
       </c>
       <c r="E67" s="13">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="F67" s="13">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G67" s="13">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H67" s="13">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="13">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
